--- a/00. CheckList_AUTOSAR_5D.xlsx
+++ b/00. CheckList_AUTOSAR_5D.xlsx
@@ -523,7 +523,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,6 +537,15 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -560,9 +569,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A258"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB18" sqref="AB18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="A215" sqref="A215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1051,8 +1061,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1246,8 +1256,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="107" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1411,8 +1421,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+    <row r="160" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1591,8 +1601,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
+    <row r="215" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
         <v>140</v>
       </c>
     </row>
